--- a/Base_Prosperidad_DAX_Taller.xlsx
+++ b/Base_Prosperidad_DAX_Taller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Garcia\Desktop\Sesiones 19-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7702833-B782-405F-B8F8-FCE6ECF6A724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8690E16F-A61E-451E-82F4-F38129CC790B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,9 +505,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -519,15 +517,62 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{92C54706-EDAC-43B2-A2C1-5AD169E7461A}"/>
   </tableStyles>
@@ -546,6 +591,34 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Nicolas Garcia Doncel" id="{D43FA80B-A9B4-45A8-A1D5-CD3812E6B253}" userId="S::nicolas-garcia@unipiloto.edu.co::7041bc9c-30c3-4b8b-957e-bd7c47524433" providerId="AD"/>
 </personList>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83455604-908B-4540-A409-4BD9C81D5799}" name="Solicitudes" displayName="Solicitudes" ref="A1:S401" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:S401" xr:uid="{83455604-908B-4540-A409-4BD9C81D5799}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{BEFB420E-AB6B-4562-B647-28B509C0C2BD}" name="id_solicitud"/>
+    <tableColumn id="2" xr3:uid="{1FC46C84-3D3F-47CE-85C2-D62E18FA39AD}" name="fecha_solicitud" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{05B9EE34-937C-4766-9979-C161B191C020}" name="departamento"/>
+    <tableColumn id="4" xr3:uid="{62C25A92-A5D5-45E5-820E-532EA4010CBE}" name="municipio"/>
+    <tableColumn id="5" xr3:uid="{490D36A6-26FD-4917-942B-B5C066DAC248}" name="programa"/>
+    <tableColumn id="6" xr3:uid="{C9A4B24B-D48B-4038-AEA2-1B221C1FE228}" name="tipo_solicitud"/>
+    <tableColumn id="7" xr3:uid="{EF9AC552-C4D1-438B-B2DA-81794F8C84D7}" name="canal_recepcion"/>
+    <tableColumn id="8" xr3:uid="{3ED9F0C4-F951-454B-923D-EA2E28FBEE31}" name="estado_solicitud"/>
+    <tableColumn id="9" xr3:uid="{54690275-59B3-4C76-9024-8FF6FABB3059}" name="dias_respuesta"/>
+    <tableColumn id="10" xr3:uid="{9398FF6E-3281-42A4-917B-A77CB620CAA3}" name="num_beneficiarios"/>
+    <tableColumn id="11" xr3:uid="{8F2B79FD-410D-43AE-B471-34B344D3A8FD}" name="valor_giro"/>
+    <tableColumn id="12" xr3:uid="{2F61A992-E44B-4C5C-A480-2B084BFEBBC4}" name="ciclo_pago"/>
+    <tableColumn id="13" xr3:uid="{4A345190-D67D-42AB-8B9A-CA6F4810408F}" name="region"/>
+    <tableColumn id="14" xr3:uid="{650E3E2A-4B55-4745-B942-3C77A1EE4302}" name="nivel_prioridad"/>
+    <tableColumn id="15" xr3:uid="{FEF1F566-AFB1-442E-B373-07EFDA103554}" name="funcionario_responsable"/>
+    <tableColumn id="16" xr3:uid="{E04AA9BD-F6CF-4FB8-8D6F-AD8EA53FDDD7}" name="fuente_datos"/>
+    <tableColumn id="17" xr3:uid="{F9BFB96F-3D36-4124-984E-2AE23D319F57}" name="fecha_pago"/>
+    <tableColumn id="18" xr3:uid="{8DB064B8-4893-4E7C-A211-A45EA4702F3B}" name="flag_error_captura"/>
+    <tableColumn id="19" xr3:uid="{75DDD2FD-6CE6-4CEE-A585-87A87DA52482}" name="comentario"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -896,86 +969,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
     <col min="13" max="13" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" customWidth="1"/>
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5546875" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -983,7 +1058,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>45394</v>
       </c>
       <c r="C2" t="s">
@@ -1036,7 +1111,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>45640</v>
       </c>
       <c r="C3" t="s">
@@ -1089,7 +1164,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>45562</v>
       </c>
       <c r="C4" t="s">
@@ -1134,7 +1209,7 @@
       <c r="P4" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>45572</v>
       </c>
       <c r="R4">
@@ -1148,7 +1223,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>45398</v>
       </c>
       <c r="C5" t="s">
@@ -1201,7 +1276,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>45363</v>
       </c>
       <c r="C6" t="s">
@@ -1254,7 +1329,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>45480</v>
       </c>
       <c r="C7" t="s">
@@ -1299,7 +1374,7 @@
       <c r="P7" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>45500</v>
       </c>
       <c r="R7">
@@ -1313,7 +1388,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>45312</v>
       </c>
       <c r="C8" t="s">
@@ -1358,7 +1433,7 @@
       <c r="P8" t="s">
         <v>73</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>45325</v>
       </c>
       <c r="R8">
@@ -1372,7 +1447,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>45394</v>
       </c>
       <c r="C9" t="s">
@@ -1425,7 +1500,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>45413</v>
       </c>
       <c r="C10" t="s">
@@ -1478,7 +1553,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>45506</v>
       </c>
       <c r="C11" t="s">
@@ -1523,7 +1598,7 @@
       <c r="P11" t="s">
         <v>73</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <v>45513</v>
       </c>
       <c r="R11">
@@ -1537,7 +1612,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>45622</v>
       </c>
       <c r="C12" t="s">
@@ -1590,7 +1665,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>45379</v>
       </c>
       <c r="C13" t="s">
@@ -1635,7 +1710,7 @@
       <c r="P13" t="s">
         <v>73</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <v>45385</v>
       </c>
       <c r="R13">
@@ -1649,7 +1724,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>45391</v>
       </c>
       <c r="C14" t="s">
@@ -1694,7 +1769,7 @@
       <c r="P14" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <v>45416</v>
       </c>
       <c r="R14">
@@ -1708,7 +1783,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>45651</v>
       </c>
       <c r="C15" t="s">
@@ -1761,7 +1836,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>45443</v>
       </c>
       <c r="C16" t="s">
@@ -1814,7 +1889,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>45422</v>
       </c>
       <c r="C17" t="s">
@@ -1867,7 +1942,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>45441</v>
       </c>
       <c r="C18" t="s">
@@ -1912,7 +1987,7 @@
       <c r="P18" t="s">
         <v>73</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="1">
         <v>45456</v>
       </c>
       <c r="R18">
@@ -1926,7 +2001,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>45600</v>
       </c>
       <c r="C19" t="s">
@@ -1979,7 +2054,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>45549</v>
       </c>
       <c r="C20" t="s">
@@ -2024,7 +2099,7 @@
       <c r="P20" t="s">
         <v>73</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="1">
         <v>45559</v>
       </c>
       <c r="R20">
@@ -2038,7 +2113,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>45635</v>
       </c>
       <c r="C21" t="s">
@@ -2083,7 +2158,7 @@
       <c r="P21" t="s">
         <v>72</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="1">
         <v>45648</v>
       </c>
       <c r="R21">
@@ -2097,7 +2172,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>45585</v>
       </c>
       <c r="C22" t="s">
@@ -2150,7 +2225,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>45483</v>
       </c>
       <c r="C23" t="s">
@@ -2195,7 +2270,7 @@
       <c r="P23" t="s">
         <v>73</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="1">
         <v>45503</v>
       </c>
       <c r="R23">
@@ -2209,7 +2284,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>45568</v>
       </c>
       <c r="C24" t="s">
@@ -2262,7 +2337,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>45452</v>
       </c>
       <c r="C25" t="s">
@@ -2307,7 +2382,7 @@
       <c r="P25" t="s">
         <v>73</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="1">
         <v>45464</v>
       </c>
       <c r="R25">
@@ -2321,7 +2396,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>45605</v>
       </c>
       <c r="C26" t="s">
@@ -2366,7 +2441,7 @@
       <c r="P26" t="s">
         <v>75</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="1">
         <v>45609</v>
       </c>
       <c r="R26">
@@ -2380,7 +2455,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>45313</v>
       </c>
       <c r="C27" t="s">
@@ -2433,7 +2508,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>45544</v>
       </c>
       <c r="C28" t="s">
@@ -2486,7 +2561,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>45527</v>
       </c>
       <c r="C29" t="s">
@@ -2539,7 +2614,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>45636</v>
       </c>
       <c r="C30" t="s">
@@ -2592,7 +2667,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>45340</v>
       </c>
       <c r="C31" t="s">
@@ -2645,7 +2720,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>45350</v>
       </c>
       <c r="C32" t="s">
@@ -2698,7 +2773,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>45461</v>
       </c>
       <c r="C33" t="s">
@@ -2751,7 +2826,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>45479</v>
       </c>
       <c r="C34" t="s">
@@ -2804,7 +2879,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>45562</v>
       </c>
       <c r="C35" t="s">
@@ -2857,7 +2932,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>45481</v>
       </c>
       <c r="C36" t="s">
@@ -2902,7 +2977,7 @@
       <c r="P36" t="s">
         <v>73</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="1">
         <v>45498</v>
       </c>
       <c r="R36">
@@ -2916,7 +2991,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>45466</v>
       </c>
       <c r="C37" t="s">
@@ -2969,7 +3044,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>45342</v>
       </c>
       <c r="C38" t="s">
@@ -3022,7 +3097,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>45655</v>
       </c>
       <c r="C39" t="s">
@@ -3067,7 +3142,7 @@
       <c r="P39" t="s">
         <v>73</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39" s="1">
         <v>45678</v>
       </c>
       <c r="R39">
@@ -3081,7 +3156,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>45346</v>
       </c>
       <c r="C40" t="s">
@@ -3126,7 +3201,7 @@
       <c r="P40" t="s">
         <v>75</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="1">
         <v>45368</v>
       </c>
       <c r="R40">
@@ -3140,7 +3215,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>45535</v>
       </c>
       <c r="C41" t="s">
@@ -3193,7 +3268,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>45611</v>
       </c>
       <c r="C42" t="s">
@@ -3246,7 +3321,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>45422</v>
       </c>
       <c r="C43" t="s">
@@ -3299,7 +3374,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>45598</v>
       </c>
       <c r="C44" t="s">
@@ -3344,7 +3419,7 @@
       <c r="P44" t="s">
         <v>73</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44" s="1">
         <v>45609</v>
       </c>
       <c r="R44">
@@ -3358,7 +3433,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>45426</v>
       </c>
       <c r="C45" t="s">
@@ -3411,7 +3486,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>45312</v>
       </c>
       <c r="C46" t="s">
@@ -3464,7 +3539,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>45620</v>
       </c>
       <c r="C47" t="s">
@@ -3517,7 +3592,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>45458</v>
       </c>
       <c r="C48" t="s">
@@ -3570,7 +3645,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>45565</v>
       </c>
       <c r="C49" t="s">
@@ -3623,7 +3698,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>45380</v>
       </c>
       <c r="C50" t="s">
@@ -3676,7 +3751,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>45607</v>
       </c>
       <c r="C51" t="s">
@@ -3729,7 +3804,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>45305</v>
       </c>
       <c r="C52" t="s">
@@ -3782,7 +3857,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>45533</v>
       </c>
       <c r="C53" t="s">
@@ -3827,7 +3902,7 @@
       <c r="P53" t="s">
         <v>73</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="Q53" s="1">
         <v>45556</v>
       </c>
       <c r="R53">
@@ -3841,7 +3916,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>45556</v>
       </c>
       <c r="C54" t="s">
@@ -3886,7 +3961,7 @@
       <c r="P54" t="s">
         <v>73</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54" s="1">
         <v>45572</v>
       </c>
       <c r="R54">
@@ -3900,7 +3975,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>45637</v>
       </c>
       <c r="C55" t="s">
@@ -3953,7 +4028,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>45344</v>
       </c>
       <c r="C56" t="s">
@@ -3998,7 +4073,7 @@
       <c r="P56" t="s">
         <v>75</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="Q56" s="1">
         <v>45367</v>
       </c>
       <c r="R56">
@@ -4012,7 +4087,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>45631</v>
       </c>
       <c r="C57" t="s">
@@ -4065,7 +4140,7 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>45383</v>
       </c>
       <c r="C58" t="s">
@@ -4118,7 +4193,7 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>45555</v>
       </c>
       <c r="C59" t="s">
@@ -4163,7 +4238,7 @@
       <c r="P59" t="s">
         <v>75</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="Q59" s="1">
         <v>45574</v>
       </c>
       <c r="R59">
@@ -4177,7 +4252,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>45326</v>
       </c>
       <c r="C60" t="s">
@@ -4222,7 +4297,7 @@
       <c r="P60" t="s">
         <v>74</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="Q60" s="1">
         <v>45330</v>
       </c>
       <c r="R60">
@@ -4236,7 +4311,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>45497</v>
       </c>
       <c r="C61" t="s">
@@ -4281,7 +4356,7 @@
       <c r="P61" t="s">
         <v>73</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="Q61" s="1">
         <v>45524</v>
       </c>
       <c r="R61">
@@ -4295,7 +4370,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>45372</v>
       </c>
       <c r="C62" t="s">
@@ -4348,7 +4423,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>45341</v>
       </c>
       <c r="C63" t="s">
@@ -4401,7 +4476,7 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>45651</v>
       </c>
       <c r="C64" t="s">
@@ -4454,7 +4529,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>45293</v>
       </c>
       <c r="C65" t="s">
@@ -4507,7 +4582,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>45345</v>
       </c>
       <c r="C66" t="s">
@@ -4560,7 +4635,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>45397</v>
       </c>
       <c r="C67" t="s">
@@ -4613,7 +4688,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>45551</v>
       </c>
       <c r="C68" t="s">
@@ -4666,7 +4741,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>45601</v>
       </c>
       <c r="C69" t="s">
@@ -4719,7 +4794,7 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>45482</v>
       </c>
       <c r="C70" t="s">
@@ -4772,7 +4847,7 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>45509</v>
       </c>
       <c r="C71" t="s">
@@ -4825,7 +4900,7 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>45335</v>
       </c>
       <c r="C72" t="s">
@@ -4870,7 +4945,7 @@
       <c r="P72" t="s">
         <v>73</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="Q72" s="1">
         <v>45350</v>
       </c>
       <c r="R72">
@@ -4884,7 +4959,7 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>45453</v>
       </c>
       <c r="C73" t="s">
@@ -4937,7 +5012,7 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>45493</v>
       </c>
       <c r="C74" t="s">
@@ -4990,7 +5065,7 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>45561</v>
       </c>
       <c r="C75" t="s">
@@ -5035,7 +5110,7 @@
       <c r="P75" t="s">
         <v>72</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="Q75" s="1">
         <v>45580</v>
       </c>
       <c r="R75">
@@ -5049,7 +5124,7 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>45642</v>
       </c>
       <c r="C76" t="s">
@@ -5102,7 +5177,7 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>45595</v>
       </c>
       <c r="C77" t="s">
@@ -5147,7 +5222,7 @@
       <c r="P77" t="s">
         <v>75</v>
       </c>
-      <c r="Q77" s="2">
+      <c r="Q77" s="1">
         <v>45600</v>
       </c>
       <c r="R77">
@@ -5161,7 +5236,7 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>45562</v>
       </c>
       <c r="C78" t="s">
@@ -5206,7 +5281,7 @@
       <c r="P78" t="s">
         <v>73</v>
       </c>
-      <c r="Q78" s="2">
+      <c r="Q78" s="1">
         <v>45580</v>
       </c>
       <c r="R78">
@@ -5220,7 +5295,7 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>45506</v>
       </c>
       <c r="C79" t="s">
@@ -5265,7 +5340,7 @@
       <c r="P79" t="s">
         <v>73</v>
       </c>
-      <c r="Q79" s="2">
+      <c r="Q79" s="1">
         <v>45528</v>
       </c>
       <c r="R79">
@@ -5279,7 +5354,7 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>45543</v>
       </c>
       <c r="C80" t="s">
@@ -5332,7 +5407,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>45481</v>
       </c>
       <c r="C81" t="s">
@@ -5385,7 +5460,7 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>45587</v>
       </c>
       <c r="C82" t="s">
@@ -5438,7 +5513,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>45504</v>
       </c>
       <c r="C83" t="s">
@@ -5491,7 +5566,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>45499</v>
       </c>
       <c r="C84" t="s">
@@ -5536,7 +5611,7 @@
       <c r="P84" t="s">
         <v>73</v>
       </c>
-      <c r="Q84" s="2">
+      <c r="Q84" s="1">
         <v>45527</v>
       </c>
       <c r="R84">
@@ -5550,7 +5625,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>45528</v>
       </c>
       <c r="C85" t="s">
@@ -5595,7 +5670,7 @@
       <c r="P85" t="s">
         <v>73</v>
       </c>
-      <c r="Q85" s="2">
+      <c r="Q85" s="1">
         <v>45552</v>
       </c>
       <c r="R85">
@@ -5609,7 +5684,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>45629</v>
       </c>
       <c r="C86" t="s">
@@ -5662,7 +5737,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>45344</v>
       </c>
       <c r="C87" t="s">
@@ -5707,7 +5782,7 @@
       <c r="P87" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="2">
+      <c r="Q87" s="1">
         <v>45362</v>
       </c>
       <c r="R87">
@@ -5721,7 +5796,7 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>45571</v>
       </c>
       <c r="C88" t="s">
@@ -5774,7 +5849,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>45508</v>
       </c>
       <c r="C89" t="s">
@@ -5827,7 +5902,7 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>45543</v>
       </c>
       <c r="C90" t="s">
@@ -5872,7 +5947,7 @@
       <c r="P90" t="s">
         <v>73</v>
       </c>
-      <c r="Q90" s="2">
+      <c r="Q90" s="1">
         <v>45547</v>
       </c>
       <c r="R90">
@@ -5886,7 +5961,7 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>45479</v>
       </c>
       <c r="C91" t="s">
@@ -5939,7 +6014,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>45332</v>
       </c>
       <c r="C92" t="s">
@@ -5992,7 +6067,7 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>45448</v>
       </c>
       <c r="C93" t="s">
@@ -6045,7 +6120,7 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>45306</v>
       </c>
       <c r="C94" t="s">
@@ -6098,7 +6173,7 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>45592</v>
       </c>
       <c r="C95" t="s">
@@ -6151,7 +6226,7 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>45356</v>
       </c>
       <c r="C96" t="s">
@@ -6196,7 +6271,7 @@
       <c r="P96" t="s">
         <v>73</v>
       </c>
-      <c r="Q96" s="2">
+      <c r="Q96" s="1">
         <v>45371</v>
       </c>
       <c r="R96">
@@ -6210,7 +6285,7 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>45636</v>
       </c>
       <c r="C97" t="s">
@@ -6263,7 +6338,7 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>45618</v>
       </c>
       <c r="C98" t="s">
@@ -6308,7 +6383,7 @@
       <c r="P98" t="s">
         <v>75</v>
       </c>
-      <c r="Q98" s="2">
+      <c r="Q98" s="1">
         <v>45628</v>
       </c>
       <c r="R98">
@@ -6322,7 +6397,7 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>45300</v>
       </c>
       <c r="C99" t="s">
@@ -6375,7 +6450,7 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>45635</v>
       </c>
       <c r="C100" t="s">
@@ -6428,7 +6503,7 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>45420</v>
       </c>
       <c r="C101" t="s">
@@ -6473,7 +6548,7 @@
       <c r="P101" t="s">
         <v>73</v>
       </c>
-      <c r="Q101" s="2">
+      <c r="Q101" s="1">
         <v>45436</v>
       </c>
       <c r="R101">
@@ -6487,7 +6562,7 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>45427</v>
       </c>
       <c r="C102" t="s">
@@ -6540,7 +6615,7 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>45354</v>
       </c>
       <c r="C103" t="s">
@@ -6585,7 +6660,7 @@
       <c r="P103" t="s">
         <v>72</v>
       </c>
-      <c r="Q103" s="2">
+      <c r="Q103" s="1">
         <v>45360</v>
       </c>
       <c r="R103">
@@ -6599,7 +6674,7 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>45430</v>
       </c>
       <c r="C104" t="s">
@@ -6644,7 +6719,7 @@
       <c r="P104" t="s">
         <v>73</v>
       </c>
-      <c r="Q104" s="2">
+      <c r="Q104" s="1">
         <v>45443</v>
       </c>
       <c r="R104">
@@ -6658,7 +6733,7 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>45372</v>
       </c>
       <c r="C105" t="s">
@@ -6711,7 +6786,7 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>45454</v>
       </c>
       <c r="C106" t="s">
@@ -6764,7 +6839,7 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>45580</v>
       </c>
       <c r="C107" t="s">
@@ -6809,7 +6884,7 @@
       <c r="P107" t="s">
         <v>73</v>
       </c>
-      <c r="Q107" s="2">
+      <c r="Q107" s="1">
         <v>45591</v>
       </c>
       <c r="R107">
@@ -6823,7 +6898,7 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>45552</v>
       </c>
       <c r="C108" t="s">
@@ -6868,7 +6943,7 @@
       <c r="P108" t="s">
         <v>74</v>
       </c>
-      <c r="Q108" s="2">
+      <c r="Q108" s="1">
         <v>45563</v>
       </c>
       <c r="R108">
@@ -6882,7 +6957,7 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>45522</v>
       </c>
       <c r="C109" t="s">
@@ -6935,7 +7010,7 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>45332</v>
       </c>
       <c r="C110" t="s">
@@ -6988,7 +7063,7 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>45319</v>
       </c>
       <c r="C111" t="s">
@@ -7041,7 +7116,7 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>45426</v>
       </c>
       <c r="C112" t="s">
@@ -7094,7 +7169,7 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>45492</v>
       </c>
       <c r="C113" t="s">
@@ -7147,7 +7222,7 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>45619</v>
       </c>
       <c r="C114" t="s">
@@ -7192,7 +7267,7 @@
       <c r="P114" t="s">
         <v>72</v>
       </c>
-      <c r="Q114" s="2">
+      <c r="Q114" s="1">
         <v>45630</v>
       </c>
       <c r="R114">
@@ -7206,7 +7281,7 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>45559</v>
       </c>
       <c r="C115" t="s">
@@ -7259,7 +7334,7 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <v>45324</v>
       </c>
       <c r="C116" t="s">
@@ -7304,7 +7379,7 @@
       <c r="P116" t="s">
         <v>73</v>
       </c>
-      <c r="Q116" s="2">
+      <c r="Q116" s="1">
         <v>45338</v>
       </c>
       <c r="R116">
@@ -7318,7 +7393,7 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <v>45339</v>
       </c>
       <c r="C117" t="s">
@@ -7371,7 +7446,7 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>45353</v>
       </c>
       <c r="C118" t="s">
@@ -7416,7 +7491,7 @@
       <c r="P118" t="s">
         <v>72</v>
       </c>
-      <c r="Q118" s="2">
+      <c r="Q118" s="1">
         <v>45370</v>
       </c>
       <c r="R118">
@@ -7430,7 +7505,7 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>45507</v>
       </c>
       <c r="C119" t="s">
@@ -7483,7 +7558,7 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>45584</v>
       </c>
       <c r="C120" t="s">
@@ -7528,7 +7603,7 @@
       <c r="P120" t="s">
         <v>73</v>
       </c>
-      <c r="Q120" s="2">
+      <c r="Q120" s="1">
         <v>45584</v>
       </c>
       <c r="R120">
@@ -7542,7 +7617,7 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="1">
         <v>45390</v>
       </c>
       <c r="C121" t="s">
@@ -7595,7 +7670,7 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="1">
         <v>45463</v>
       </c>
       <c r="C122" t="s">
@@ -7648,7 +7723,7 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="1">
         <v>45651</v>
       </c>
       <c r="C123" t="s">
@@ -7693,7 +7768,7 @@
       <c r="P123" t="s">
         <v>74</v>
       </c>
-      <c r="Q123" s="2">
+      <c r="Q123" s="1">
         <v>45651</v>
       </c>
       <c r="R123">
@@ -7707,7 +7782,7 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>45505</v>
       </c>
       <c r="C124" t="s">
@@ -7760,7 +7835,7 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="1">
         <v>45326</v>
       </c>
       <c r="C125" t="s">
@@ -7813,7 +7888,7 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>45518</v>
       </c>
       <c r="C126" t="s">
@@ -7858,7 +7933,7 @@
       <c r="P126" t="s">
         <v>72</v>
       </c>
-      <c r="Q126" s="2">
+      <c r="Q126" s="1">
         <v>45530</v>
       </c>
       <c r="R126">
@@ -7872,7 +7947,7 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>45392</v>
       </c>
       <c r="C127" t="s">
@@ -7925,7 +8000,7 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>45422</v>
       </c>
       <c r="C128" t="s">
@@ -7978,7 +8053,7 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>45548</v>
       </c>
       <c r="C129" t="s">
@@ -8031,7 +8106,7 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="1">
         <v>45296</v>
       </c>
       <c r="C130" t="s">
@@ -8076,7 +8151,7 @@
       <c r="P130" t="s">
         <v>73</v>
       </c>
-      <c r="Q130" s="2">
+      <c r="Q130" s="1">
         <v>45309</v>
       </c>
       <c r="R130">
@@ -8090,7 +8165,7 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="1">
         <v>45509</v>
       </c>
       <c r="C131" t="s">
@@ -8135,7 +8210,7 @@
       <c r="P131" t="s">
         <v>75</v>
       </c>
-      <c r="Q131" s="2">
+      <c r="Q131" s="1">
         <v>45525</v>
       </c>
       <c r="R131">
@@ -8149,7 +8224,7 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="1">
         <v>45546</v>
       </c>
       <c r="C132" t="s">
@@ -8202,7 +8277,7 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="1">
         <v>45650</v>
       </c>
       <c r="C133" t="s">
@@ -8255,7 +8330,7 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="1">
         <v>45574</v>
       </c>
       <c r="C134" t="s">
@@ -8308,7 +8383,7 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="1">
         <v>45498</v>
       </c>
       <c r="C135" t="s">
@@ -8361,7 +8436,7 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="1">
         <v>45306</v>
       </c>
       <c r="C136" t="s">
@@ -8406,7 +8481,7 @@
       <c r="P136" t="s">
         <v>73</v>
       </c>
-      <c r="Q136" s="2">
+      <c r="Q136" s="1">
         <v>45315</v>
       </c>
       <c r="R136">
@@ -8420,7 +8495,7 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="1">
         <v>45637</v>
       </c>
       <c r="C137" t="s">
@@ -8473,7 +8548,7 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="1">
         <v>45333</v>
       </c>
       <c r="C138" t="s">
@@ -8526,7 +8601,7 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="1">
         <v>45470</v>
       </c>
       <c r="C139" t="s">
@@ -8571,7 +8646,7 @@
       <c r="P139" t="s">
         <v>74</v>
       </c>
-      <c r="Q139" s="2">
+      <c r="Q139" s="1">
         <v>45485</v>
       </c>
       <c r="R139">
@@ -8585,7 +8660,7 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="1">
         <v>45354</v>
       </c>
       <c r="C140" t="s">
@@ -8630,7 +8705,7 @@
       <c r="P140" t="s">
         <v>73</v>
       </c>
-      <c r="Q140" s="2">
+      <c r="Q140" s="1">
         <v>45369</v>
       </c>
       <c r="R140">
@@ -8644,7 +8719,7 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="1">
         <v>45643</v>
       </c>
       <c r="C141" t="s">
@@ -8689,7 +8764,7 @@
       <c r="P141" t="s">
         <v>73</v>
       </c>
-      <c r="Q141" s="2">
+      <c r="Q141" s="1">
         <v>45652</v>
       </c>
       <c r="R141">
@@ -8703,7 +8778,7 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="1">
         <v>45522</v>
       </c>
       <c r="C142" t="s">
@@ -8756,7 +8831,7 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="1">
         <v>45532</v>
       </c>
       <c r="C143" t="s">
@@ -8809,7 +8884,7 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="1">
         <v>45343</v>
       </c>
       <c r="C144" t="s">
@@ -8862,7 +8937,7 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="1">
         <v>45387</v>
       </c>
       <c r="C145" t="s">
@@ -8915,7 +8990,7 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="1">
         <v>45513</v>
       </c>
       <c r="C146" t="s">
@@ -8960,7 +9035,7 @@
       <c r="P146" t="s">
         <v>72</v>
       </c>
-      <c r="Q146" s="2">
+      <c r="Q146" s="1">
         <v>45535</v>
       </c>
       <c r="R146">
@@ -8974,7 +9049,7 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="1">
         <v>45522</v>
       </c>
       <c r="C147" t="s">
@@ -9019,7 +9094,7 @@
       <c r="P147" t="s">
         <v>72</v>
       </c>
-      <c r="Q147" s="2">
+      <c r="Q147" s="1">
         <v>45538</v>
       </c>
       <c r="R147">
@@ -9033,7 +9108,7 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="1">
         <v>45528</v>
       </c>
       <c r="C148" t="s">
@@ -9078,7 +9153,7 @@
       <c r="P148" t="s">
         <v>72</v>
       </c>
-      <c r="Q148" s="2">
+      <c r="Q148" s="1">
         <v>45546</v>
       </c>
       <c r="R148">
@@ -9092,7 +9167,7 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="1">
         <v>45434</v>
       </c>
       <c r="C149" t="s">
@@ -9137,7 +9212,7 @@
       <c r="P149" t="s">
         <v>72</v>
       </c>
-      <c r="Q149" s="2">
+      <c r="Q149" s="1">
         <v>45449</v>
       </c>
       <c r="R149">
@@ -9151,7 +9226,7 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="1">
         <v>45462</v>
       </c>
       <c r="C150" t="s">
@@ -9204,7 +9279,7 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="1">
         <v>45320</v>
       </c>
       <c r="C151" t="s">
@@ -9249,7 +9324,7 @@
       <c r="P151" t="s">
         <v>73</v>
       </c>
-      <c r="Q151" s="2">
+      <c r="Q151" s="1">
         <v>45349</v>
       </c>
       <c r="R151">
@@ -9263,7 +9338,7 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="1">
         <v>45327</v>
       </c>
       <c r="C152" t="s">
@@ -9316,7 +9391,7 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="1">
         <v>45304</v>
       </c>
       <c r="C153" t="s">
@@ -9369,7 +9444,7 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="1">
         <v>45451</v>
       </c>
       <c r="C154" t="s">
@@ -9422,7 +9497,7 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="1">
         <v>45618</v>
       </c>
       <c r="C155" t="s">
@@ -9475,7 +9550,7 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="1">
         <v>45478</v>
       </c>
       <c r="C156" t="s">
@@ -9528,7 +9603,7 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="1">
         <v>45534</v>
       </c>
       <c r="C157" t="s">
@@ -9581,7 +9656,7 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="1">
         <v>45377</v>
       </c>
       <c r="C158" t="s">
@@ -9634,7 +9709,7 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="1">
         <v>45575</v>
       </c>
       <c r="C159" t="s">
@@ -9687,7 +9762,7 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="1">
         <v>45357</v>
       </c>
       <c r="C160" t="s">
@@ -9740,7 +9815,7 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="1">
         <v>45461</v>
       </c>
       <c r="C161" t="s">
@@ -9785,7 +9860,7 @@
       <c r="P161" t="s">
         <v>73</v>
       </c>
-      <c r="Q161" s="2">
+      <c r="Q161" s="1">
         <v>45480</v>
       </c>
       <c r="R161">
@@ -9799,7 +9874,7 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="1">
         <v>45336</v>
       </c>
       <c r="C162" t="s">
@@ -9844,7 +9919,7 @@
       <c r="P162" t="s">
         <v>72</v>
       </c>
-      <c r="Q162" s="2">
+      <c r="Q162" s="1">
         <v>45347</v>
       </c>
       <c r="R162">
@@ -9858,7 +9933,7 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="1">
         <v>45353</v>
       </c>
       <c r="C163" t="s">
@@ -9903,7 +9978,7 @@
       <c r="P163" t="s">
         <v>75</v>
       </c>
-      <c r="Q163" s="2">
+      <c r="Q163" s="1">
         <v>45373</v>
       </c>
       <c r="R163">
@@ -9917,7 +9992,7 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="1">
         <v>45425</v>
       </c>
       <c r="C164" t="s">
@@ -9970,7 +10045,7 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="1">
         <v>45575</v>
       </c>
       <c r="C165" t="s">
@@ -10015,7 +10090,7 @@
       <c r="P165" t="s">
         <v>72</v>
       </c>
-      <c r="Q165" s="2">
+      <c r="Q165" s="1">
         <v>45578</v>
       </c>
       <c r="R165">
@@ -10029,7 +10104,7 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="1">
         <v>45319</v>
       </c>
       <c r="C166" t="s">
@@ -10082,7 +10157,7 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="1">
         <v>45399</v>
       </c>
       <c r="C167" t="s">
@@ -10127,7 +10202,7 @@
       <c r="P167" t="s">
         <v>72</v>
       </c>
-      <c r="Q167" s="2">
+      <c r="Q167" s="1">
         <v>45414</v>
       </c>
       <c r="R167">
@@ -10141,7 +10216,7 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="1">
         <v>45335</v>
       </c>
       <c r="C168" t="s">
@@ -10186,7 +10261,7 @@
       <c r="P168" t="s">
         <v>74</v>
       </c>
-      <c r="Q168" s="2">
+      <c r="Q168" s="1">
         <v>45352</v>
       </c>
       <c r="R168">
@@ -10200,7 +10275,7 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="1">
         <v>45631</v>
       </c>
       <c r="C169" t="s">
@@ -10253,7 +10328,7 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="1">
         <v>45577</v>
       </c>
       <c r="C170" t="s">
@@ -10306,7 +10381,7 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="1">
         <v>45622</v>
       </c>
       <c r="C171" t="s">
@@ -10359,7 +10434,7 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="1">
         <v>45419</v>
       </c>
       <c r="C172" t="s">
@@ -10412,7 +10487,7 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="1">
         <v>45639</v>
       </c>
       <c r="C173" t="s">
@@ -10465,7 +10540,7 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="1">
         <v>45522</v>
       </c>
       <c r="C174" t="s">
@@ -10510,7 +10585,7 @@
       <c r="P174" t="s">
         <v>73</v>
       </c>
-      <c r="Q174" s="2">
+      <c r="Q174" s="1">
         <v>45537</v>
       </c>
       <c r="R174">
@@ -10524,7 +10599,7 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="1">
         <v>45481</v>
       </c>
       <c r="C175" t="s">
@@ -10577,7 +10652,7 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="1">
         <v>45516</v>
       </c>
       <c r="C176" t="s">
@@ -10630,7 +10705,7 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="1">
         <v>45574</v>
       </c>
       <c r="C177" t="s">
@@ -10683,7 +10758,7 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="1">
         <v>45412</v>
       </c>
       <c r="C178" t="s">
@@ -10736,7 +10811,7 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="1">
         <v>45407</v>
       </c>
       <c r="C179" t="s">
@@ -10781,7 +10856,7 @@
       <c r="P179" t="s">
         <v>73</v>
       </c>
-      <c r="Q179" s="2">
+      <c r="Q179" s="1">
         <v>45419</v>
       </c>
       <c r="R179">
@@ -10795,7 +10870,7 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="1">
         <v>45524</v>
       </c>
       <c r="C180" t="s">
@@ -10848,7 +10923,7 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="1">
         <v>45550</v>
       </c>
       <c r="C181" t="s">
@@ -10893,7 +10968,7 @@
       <c r="P181" t="s">
         <v>74</v>
       </c>
-      <c r="Q181" s="2">
+      <c r="Q181" s="1">
         <v>45557</v>
       </c>
       <c r="R181">
@@ -10907,7 +10982,7 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="1">
         <v>45650</v>
       </c>
       <c r="C182" t="s">
@@ -10952,7 +11027,7 @@
       <c r="P182" t="s">
         <v>73</v>
       </c>
-      <c r="Q182" s="2">
+      <c r="Q182" s="1">
         <v>45659</v>
       </c>
       <c r="R182">
@@ -10966,7 +11041,7 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="1">
         <v>45489</v>
       </c>
       <c r="C183" t="s">
@@ -11011,7 +11086,7 @@
       <c r="P183" t="s">
         <v>74</v>
       </c>
-      <c r="Q183" s="2">
+      <c r="Q183" s="1">
         <v>45504</v>
       </c>
       <c r="R183">
@@ -11025,7 +11100,7 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="1">
         <v>45428</v>
       </c>
       <c r="C184" t="s">
@@ -11070,7 +11145,7 @@
       <c r="P184" t="s">
         <v>72</v>
       </c>
-      <c r="Q184" s="2">
+      <c r="Q184" s="1">
         <v>45435</v>
       </c>
       <c r="R184">
@@ -11084,7 +11159,7 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="1">
         <v>45609</v>
       </c>
       <c r="C185" t="s">
@@ -11137,7 +11212,7 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="1">
         <v>45456</v>
       </c>
       <c r="C186" t="s">
@@ -11190,7 +11265,7 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="1">
         <v>45516</v>
       </c>
       <c r="C187" t="s">
@@ -11243,7 +11318,7 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="1">
         <v>45598</v>
       </c>
       <c r="C188" t="s">
@@ -11296,7 +11371,7 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="1">
         <v>45525</v>
       </c>
       <c r="C189" t="s">
@@ -11341,7 +11416,7 @@
       <c r="P189" t="s">
         <v>72</v>
       </c>
-      <c r="Q189" s="2">
+      <c r="Q189" s="1">
         <v>45552</v>
       </c>
       <c r="R189">
@@ -11355,7 +11430,7 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="1">
         <v>45463</v>
       </c>
       <c r="C190" t="s">
@@ -11408,7 +11483,7 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="1">
         <v>45443</v>
       </c>
       <c r="C191" t="s">
@@ -11453,7 +11528,7 @@
       <c r="P191" t="s">
         <v>74</v>
       </c>
-      <c r="Q191" s="2">
+      <c r="Q191" s="1">
         <v>45443</v>
       </c>
       <c r="R191">
@@ -11467,7 +11542,7 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="1">
         <v>45606</v>
       </c>
       <c r="C192" t="s">
@@ -11520,7 +11595,7 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="1">
         <v>45451</v>
       </c>
       <c r="C193" t="s">
@@ -11573,7 +11648,7 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="1">
         <v>45387</v>
       </c>
       <c r="C194" t="s">
@@ -11626,7 +11701,7 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="1">
         <v>45524</v>
       </c>
       <c r="C195" t="s">
@@ -11679,7 +11754,7 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="1">
         <v>45471</v>
       </c>
       <c r="C196" t="s">
@@ -11724,7 +11799,7 @@
       <c r="P196" t="s">
         <v>72</v>
       </c>
-      <c r="Q196" s="2">
+      <c r="Q196" s="1">
         <v>45483</v>
       </c>
       <c r="R196">
@@ -11738,7 +11813,7 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="1">
         <v>45404</v>
       </c>
       <c r="C197" t="s">
@@ -11783,7 +11858,7 @@
       <c r="P197" t="s">
         <v>72</v>
       </c>
-      <c r="Q197" s="2">
+      <c r="Q197" s="1">
         <v>45419</v>
       </c>
       <c r="R197">
@@ -11797,7 +11872,7 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="1">
         <v>45609</v>
       </c>
       <c r="C198" t="s">
@@ -11850,7 +11925,7 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="1">
         <v>45343</v>
       </c>
       <c r="C199" t="s">
@@ -11903,7 +11978,7 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="1">
         <v>45559</v>
       </c>
       <c r="C200" t="s">
@@ -11956,7 +12031,7 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="1">
         <v>45586</v>
       </c>
       <c r="C201" t="s">
@@ -12009,7 +12084,7 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="1">
         <v>45404</v>
       </c>
       <c r="C202" t="s">
@@ -12054,7 +12129,7 @@
       <c r="P202" t="s">
         <v>74</v>
       </c>
-      <c r="Q202" s="2">
+      <c r="Q202" s="1">
         <v>45422</v>
       </c>
       <c r="R202">
@@ -12068,7 +12143,7 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="1">
         <v>45392</v>
       </c>
       <c r="C203" t="s">
@@ -12121,7 +12196,7 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="1">
         <v>45404</v>
       </c>
       <c r="C204" t="s">
@@ -12166,7 +12241,7 @@
       <c r="P204" t="s">
         <v>73</v>
       </c>
-      <c r="Q204" s="2">
+      <c r="Q204" s="1">
         <v>45412</v>
       </c>
       <c r="R204">
@@ -12180,7 +12255,7 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="1">
         <v>45372</v>
       </c>
       <c r="C205" t="s">
@@ -12233,7 +12308,7 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="1">
         <v>45478</v>
       </c>
       <c r="C206" t="s">
@@ -12286,7 +12361,7 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="1">
         <v>45404</v>
       </c>
       <c r="C207" t="s">
@@ -12339,7 +12414,7 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="1">
         <v>45293</v>
       </c>
       <c r="C208" t="s">
@@ -12392,7 +12467,7 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="1">
         <v>45421</v>
       </c>
       <c r="C209" t="s">
@@ -12445,7 +12520,7 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="1">
         <v>45511</v>
       </c>
       <c r="C210" t="s">
@@ -12490,7 +12565,7 @@
       <c r="P210" t="s">
         <v>73</v>
       </c>
-      <c r="Q210" s="2">
+      <c r="Q210" s="1">
         <v>45533</v>
       </c>
       <c r="R210">
@@ -12504,7 +12579,7 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="1">
         <v>45345</v>
       </c>
       <c r="C211" t="s">
@@ -12549,7 +12624,7 @@
       <c r="P211" t="s">
         <v>72</v>
       </c>
-      <c r="Q211" s="2">
+      <c r="Q211" s="1">
         <v>45350</v>
       </c>
       <c r="R211">
@@ -12563,7 +12638,7 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="1">
         <v>45634</v>
       </c>
       <c r="C212" t="s">
@@ -12608,7 +12683,7 @@
       <c r="P212" t="s">
         <v>73</v>
       </c>
-      <c r="Q212" s="2">
+      <c r="Q212" s="1">
         <v>45645</v>
       </c>
       <c r="R212">
@@ -12622,7 +12697,7 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="1">
         <v>45515</v>
       </c>
       <c r="C213" t="s">
@@ -12675,7 +12750,7 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="1">
         <v>45516</v>
       </c>
       <c r="C214" t="s">
@@ -12728,7 +12803,7 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="1">
         <v>45417</v>
       </c>
       <c r="C215" t="s">
@@ -12781,7 +12856,7 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="1">
         <v>45421</v>
       </c>
       <c r="C216" t="s">
@@ -12834,7 +12909,7 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="1">
         <v>45344</v>
       </c>
       <c r="C217" t="s">
@@ -12887,7 +12962,7 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="1">
         <v>45463</v>
       </c>
       <c r="C218" t="s">
@@ -12940,7 +13015,7 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="1">
         <v>45509</v>
       </c>
       <c r="C219" t="s">
@@ -12993,7 +13068,7 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="1">
         <v>45451</v>
       </c>
       <c r="C220" t="s">
@@ -13046,7 +13121,7 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="1">
         <v>45489</v>
       </c>
       <c r="C221" t="s">
@@ -13091,7 +13166,7 @@
       <c r="P221" t="s">
         <v>73</v>
       </c>
-      <c r="Q221" s="2">
+      <c r="Q221" s="1">
         <v>45508</v>
       </c>
       <c r="R221">
@@ -13105,7 +13180,7 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" s="1">
         <v>45538</v>
       </c>
       <c r="C222" t="s">
@@ -13158,7 +13233,7 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="1">
         <v>45615</v>
       </c>
       <c r="C223" t="s">
@@ -13211,7 +13286,7 @@
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="1">
         <v>45494</v>
       </c>
       <c r="C224" t="s">
@@ -13264,7 +13339,7 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="1">
         <v>45475</v>
       </c>
       <c r="C225" t="s">
@@ -13309,7 +13384,7 @@
       <c r="P225" t="s">
         <v>73</v>
       </c>
-      <c r="Q225" s="2">
+      <c r="Q225" s="1">
         <v>45497</v>
       </c>
       <c r="R225">
@@ -13323,7 +13398,7 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="1">
         <v>45414</v>
       </c>
       <c r="C226" t="s">
@@ -13376,7 +13451,7 @@
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="1">
         <v>45546</v>
       </c>
       <c r="C227" t="s">
@@ -13429,7 +13504,7 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="1">
         <v>45585</v>
       </c>
       <c r="C228" t="s">
@@ -13482,7 +13557,7 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="1">
         <v>45571</v>
       </c>
       <c r="C229" t="s">
@@ -13535,7 +13610,7 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="1">
         <v>45616</v>
       </c>
       <c r="C230" t="s">
@@ -13580,7 +13655,7 @@
       <c r="P230" t="s">
         <v>73</v>
       </c>
-      <c r="Q230" s="2">
+      <c r="Q230" s="1">
         <v>45621</v>
       </c>
       <c r="R230">
@@ -13594,7 +13669,7 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="1">
         <v>45389</v>
       </c>
       <c r="C231" t="s">
@@ -13639,7 +13714,7 @@
       <c r="P231" t="s">
         <v>72</v>
       </c>
-      <c r="Q231" s="2">
+      <c r="Q231" s="1">
         <v>45422</v>
       </c>
       <c r="R231">
@@ -13653,7 +13728,7 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="1">
         <v>45489</v>
       </c>
       <c r="C232" t="s">
@@ -13706,7 +13781,7 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="1">
         <v>45531</v>
       </c>
       <c r="C233" t="s">
@@ -13759,7 +13834,7 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="1">
         <v>45435</v>
       </c>
       <c r="C234" t="s">
@@ -13804,7 +13879,7 @@
       <c r="P234" t="s">
         <v>72</v>
       </c>
-      <c r="Q234" s="2">
+      <c r="Q234" s="1">
         <v>45443</v>
       </c>
       <c r="R234">
@@ -13818,7 +13893,7 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="1">
         <v>45388</v>
       </c>
       <c r="C235" t="s">
@@ -13871,7 +13946,7 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="1">
         <v>45492</v>
       </c>
       <c r="C236" t="s">
@@ -13924,7 +13999,7 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="1">
         <v>45415</v>
       </c>
       <c r="C237" t="s">
@@ -13977,7 +14052,7 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="1">
         <v>45478</v>
       </c>
       <c r="C238" t="s">
@@ -14030,7 +14105,7 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="1">
         <v>45617</v>
       </c>
       <c r="C239" t="s">
@@ -14083,7 +14158,7 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="1">
         <v>45640</v>
       </c>
       <c r="C240" t="s">
@@ -14136,7 +14211,7 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="1">
         <v>45550</v>
       </c>
       <c r="C241" t="s">
@@ -14181,7 +14256,7 @@
       <c r="P241" t="s">
         <v>73</v>
       </c>
-      <c r="Q241" s="2">
+      <c r="Q241" s="1">
         <v>45555</v>
       </c>
       <c r="R241">
@@ -14195,7 +14270,7 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="1">
         <v>45439</v>
       </c>
       <c r="C242" t="s">
@@ -14248,7 +14323,7 @@
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="1">
         <v>45543</v>
       </c>
       <c r="C243" t="s">
@@ -14301,7 +14376,7 @@
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="1">
         <v>45637</v>
       </c>
       <c r="C244" t="s">
@@ -14354,7 +14429,7 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="1">
         <v>45438</v>
       </c>
       <c r="C245" t="s">
@@ -14407,7 +14482,7 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="1">
         <v>45439</v>
       </c>
       <c r="C246" t="s">
@@ -14460,7 +14535,7 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="1">
         <v>45643</v>
       </c>
       <c r="C247" t="s">
@@ -14513,7 +14588,7 @@
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" s="1">
         <v>45490</v>
       </c>
       <c r="C248" t="s">
@@ -14566,7 +14641,7 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="1">
         <v>45599</v>
       </c>
       <c r="C249" t="s">
@@ -14611,7 +14686,7 @@
       <c r="P249" t="s">
         <v>74</v>
       </c>
-      <c r="Q249" s="2">
+      <c r="Q249" s="1">
         <v>45617</v>
       </c>
       <c r="R249">
@@ -14625,7 +14700,7 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="1">
         <v>45419</v>
       </c>
       <c r="C250" t="s">
@@ -14678,7 +14753,7 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="1">
         <v>45330</v>
       </c>
       <c r="C251" t="s">
@@ -14731,7 +14806,7 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="1">
         <v>45629</v>
       </c>
       <c r="C252" t="s">
@@ -14784,7 +14859,7 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="1">
         <v>45651</v>
       </c>
       <c r="C253" t="s">
@@ -14829,7 +14904,7 @@
       <c r="P253" t="s">
         <v>73</v>
       </c>
-      <c r="Q253" s="2">
+      <c r="Q253" s="1">
         <v>45663</v>
       </c>
       <c r="R253">
@@ -14843,7 +14918,7 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="1">
         <v>45420</v>
       </c>
       <c r="C254" t="s">
@@ -14896,7 +14971,7 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="1">
         <v>45558</v>
       </c>
       <c r="C255" t="s">
@@ -14949,7 +15024,7 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="1">
         <v>45442</v>
       </c>
       <c r="C256" t="s">
@@ -14994,7 +15069,7 @@
       <c r="P256" t="s">
         <v>72</v>
       </c>
-      <c r="Q256" s="2">
+      <c r="Q256" s="1">
         <v>45453</v>
       </c>
       <c r="R256">
@@ -15008,7 +15083,7 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="1">
         <v>45589</v>
       </c>
       <c r="C257" t="s">
@@ -15061,7 +15136,7 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258" s="1">
         <v>45390</v>
       </c>
       <c r="C258" t="s">
@@ -15114,7 +15189,7 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="1">
         <v>45554</v>
       </c>
       <c r="C259" t="s">
@@ -15167,7 +15242,7 @@
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="1">
         <v>45543</v>
       </c>
       <c r="C260" t="s">
@@ -15220,7 +15295,7 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="1">
         <v>45435</v>
       </c>
       <c r="C261" t="s">
@@ -15265,7 +15340,7 @@
       <c r="P261" t="s">
         <v>73</v>
       </c>
-      <c r="Q261" s="2">
+      <c r="Q261" s="1">
         <v>45454</v>
       </c>
       <c r="R261">
@@ -15279,7 +15354,7 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="1">
         <v>45637</v>
       </c>
       <c r="C262" t="s">
@@ -15332,7 +15407,7 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="1">
         <v>45403</v>
       </c>
       <c r="C263" t="s">
@@ -15385,7 +15460,7 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264" s="1">
         <v>45351</v>
       </c>
       <c r="C264" t="s">
@@ -15438,7 +15513,7 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265" s="1">
         <v>45293</v>
       </c>
       <c r="C265" t="s">
@@ -15483,7 +15558,7 @@
       <c r="P265" t="s">
         <v>75</v>
       </c>
-      <c r="Q265" s="2">
+      <c r="Q265" s="1">
         <v>45297</v>
       </c>
       <c r="R265">
@@ -15497,7 +15572,7 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266" s="1">
         <v>45595</v>
       </c>
       <c r="C266" t="s">
@@ -15550,7 +15625,7 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267" s="1">
         <v>45545</v>
       </c>
       <c r="C267" t="s">
@@ -15595,7 +15670,7 @@
       <c r="P267" t="s">
         <v>72</v>
       </c>
-      <c r="Q267" s="2">
+      <c r="Q267" s="1">
         <v>45548</v>
       </c>
       <c r="R267">
@@ -15609,7 +15684,7 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="1">
         <v>45431</v>
       </c>
       <c r="C268" t="s">
@@ -15662,7 +15737,7 @@
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="1">
         <v>45328</v>
       </c>
       <c r="C269" t="s">
@@ -15715,7 +15790,7 @@
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270" s="1">
         <v>45451</v>
       </c>
       <c r="C270" t="s">
@@ -15760,7 +15835,7 @@
       <c r="P270" t="s">
         <v>73</v>
       </c>
-      <c r="Q270" s="2">
+      <c r="Q270" s="1">
         <v>45461</v>
       </c>
       <c r="R270">
@@ -15774,7 +15849,7 @@
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271" s="1">
         <v>45300</v>
       </c>
       <c r="C271" t="s">
@@ -15827,7 +15902,7 @@
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272" s="1">
         <v>45524</v>
       </c>
       <c r="C272" t="s">
@@ -15880,7 +15955,7 @@
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273" s="1">
         <v>45390</v>
       </c>
       <c r="C273" t="s">
@@ -15925,7 +16000,7 @@
       <c r="P273" t="s">
         <v>73</v>
       </c>
-      <c r="Q273" s="2">
+      <c r="Q273" s="1">
         <v>45412</v>
       </c>
       <c r="R273">
@@ -15939,7 +16014,7 @@
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274" s="1">
         <v>45438</v>
       </c>
       <c r="C274" t="s">
@@ -15984,7 +16059,7 @@
       <c r="P274" t="s">
         <v>72</v>
       </c>
-      <c r="Q274" s="2">
+      <c r="Q274" s="1">
         <v>45449</v>
       </c>
       <c r="R274">
@@ -15998,7 +16073,7 @@
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275" s="1">
         <v>45595</v>
       </c>
       <c r="C275" t="s">
@@ -16051,7 +16126,7 @@
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276" s="1">
         <v>45499</v>
       </c>
       <c r="C276" t="s">
@@ -16104,7 +16179,7 @@
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277" s="1">
         <v>45422</v>
       </c>
       <c r="C277" t="s">
@@ -16157,7 +16232,7 @@
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278" s="1">
         <v>45443</v>
       </c>
       <c r="C278" t="s">
@@ -16202,7 +16277,7 @@
       <c r="P278" t="s">
         <v>74</v>
       </c>
-      <c r="Q278" s="2">
+      <c r="Q278" s="1">
         <v>45469</v>
       </c>
       <c r="R278">
@@ -16216,7 +16291,7 @@
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279" s="1">
         <v>45345</v>
       </c>
       <c r="C279" t="s">
@@ -16269,7 +16344,7 @@
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280" s="1">
         <v>45411</v>
       </c>
       <c r="C280" t="s">
@@ -16322,7 +16397,7 @@
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281" s="1">
         <v>45452</v>
       </c>
       <c r="C281" t="s">
@@ -16367,7 +16442,7 @@
       <c r="P281" t="s">
         <v>72</v>
       </c>
-      <c r="Q281" s="2">
+      <c r="Q281" s="1">
         <v>45475</v>
       </c>
       <c r="R281">
@@ -16381,7 +16456,7 @@
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282" s="1">
         <v>45407</v>
       </c>
       <c r="C282" t="s">
@@ -16434,7 +16509,7 @@
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283" s="1">
         <v>45366</v>
       </c>
       <c r="C283" t="s">
@@ -16479,7 +16554,7 @@
       <c r="P283" t="s">
         <v>73</v>
       </c>
-      <c r="Q283" s="2">
+      <c r="Q283" s="1">
         <v>45382</v>
       </c>
       <c r="R283">
@@ -16493,7 +16568,7 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284" s="1">
         <v>45404</v>
       </c>
       <c r="C284" t="s">
@@ -16546,7 +16621,7 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285" s="1">
         <v>45395</v>
       </c>
       <c r="C285" t="s">
@@ -16599,7 +16674,7 @@
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286" s="1">
         <v>45631</v>
       </c>
       <c r="C286" t="s">
@@ -16652,7 +16727,7 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287" s="1">
         <v>45545</v>
       </c>
       <c r="C287" t="s">
@@ -16705,7 +16780,7 @@
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288" s="1">
         <v>45518</v>
       </c>
       <c r="C288" t="s">
@@ -16758,7 +16833,7 @@
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289" s="1">
         <v>45403</v>
       </c>
       <c r="C289" t="s">
@@ -16811,7 +16886,7 @@
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290" s="1">
         <v>45390</v>
       </c>
       <c r="C290" t="s">
@@ -16856,7 +16931,7 @@
       <c r="P290" t="s">
         <v>75</v>
       </c>
-      <c r="Q290" s="2">
+      <c r="Q290" s="1">
         <v>45407</v>
       </c>
       <c r="R290">
@@ -16870,7 +16945,7 @@
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291" s="1">
         <v>45444</v>
       </c>
       <c r="C291" t="s">
@@ -16915,7 +16990,7 @@
       <c r="P291" t="s">
         <v>73</v>
       </c>
-      <c r="Q291" s="2">
+      <c r="Q291" s="1">
         <v>45460</v>
       </c>
       <c r="R291">
@@ -16929,7 +17004,7 @@
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292" s="1">
         <v>45640</v>
       </c>
       <c r="C292" t="s">
@@ -16974,7 +17049,7 @@
       <c r="P292" t="s">
         <v>72</v>
       </c>
-      <c r="Q292" s="2">
+      <c r="Q292" s="1">
         <v>45656</v>
       </c>
       <c r="R292">
@@ -16988,7 +17063,7 @@
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293" s="1">
         <v>45629</v>
       </c>
       <c r="C293" t="s">
@@ -17041,7 +17116,7 @@
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294" s="1">
         <v>45485</v>
       </c>
       <c r="C294" t="s">
@@ -17094,7 +17169,7 @@
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295" s="1">
         <v>45601</v>
       </c>
       <c r="C295" t="s">
@@ -17147,7 +17222,7 @@
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296" s="1">
         <v>45454</v>
       </c>
       <c r="C296" t="s">
@@ -17192,7 +17267,7 @@
       <c r="P296" t="s">
         <v>72</v>
       </c>
-      <c r="Q296" s="2">
+      <c r="Q296" s="1">
         <v>45466</v>
       </c>
       <c r="R296">
@@ -17206,7 +17281,7 @@
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297" s="1">
         <v>45499</v>
       </c>
       <c r="C297" t="s">
@@ -17251,7 +17326,7 @@
       <c r="P297" t="s">
         <v>74</v>
       </c>
-      <c r="Q297" s="2">
+      <c r="Q297" s="1">
         <v>45512</v>
       </c>
       <c r="R297">
@@ -17265,7 +17340,7 @@
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298" s="1">
         <v>45460</v>
       </c>
       <c r="C298" t="s">
@@ -17318,7 +17393,7 @@
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="1">
         <v>45452</v>
       </c>
       <c r="C299" t="s">
@@ -17371,7 +17446,7 @@
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300" s="1">
         <v>45359</v>
       </c>
       <c r="C300" t="s">
@@ -17416,7 +17491,7 @@
       <c r="P300" t="s">
         <v>72</v>
       </c>
-      <c r="Q300" s="2">
+      <c r="Q300" s="1">
         <v>45366</v>
       </c>
       <c r="R300">
@@ -17430,7 +17505,7 @@
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301" s="1">
         <v>45580</v>
       </c>
       <c r="C301" t="s">
@@ -17475,7 +17550,7 @@
       <c r="P301" t="s">
         <v>73</v>
       </c>
-      <c r="Q301" s="2">
+      <c r="Q301" s="1">
         <v>45580</v>
       </c>
       <c r="R301">
@@ -17489,7 +17564,7 @@
       <c r="A302">
         <v>301</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302" s="1">
         <v>45568</v>
       </c>
       <c r="C302" t="s">
@@ -17534,7 +17609,7 @@
       <c r="P302" t="s">
         <v>72</v>
       </c>
-      <c r="Q302" s="2">
+      <c r="Q302" s="1">
         <v>45590</v>
       </c>
       <c r="R302">
@@ -17548,7 +17623,7 @@
       <c r="A303">
         <v>302</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303" s="1">
         <v>45595</v>
       </c>
       <c r="C303" t="s">
@@ -17593,7 +17668,7 @@
       <c r="P303" t="s">
         <v>72</v>
       </c>
-      <c r="Q303" s="2">
+      <c r="Q303" s="1">
         <v>45611</v>
       </c>
       <c r="R303">
@@ -17607,7 +17682,7 @@
       <c r="A304">
         <v>303</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304" s="1">
         <v>45426</v>
       </c>
       <c r="C304" t="s">
@@ -17660,7 +17735,7 @@
       <c r="A305">
         <v>304</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305" s="1">
         <v>45486</v>
       </c>
       <c r="C305" t="s">
@@ -17713,7 +17788,7 @@
       <c r="A306">
         <v>305</v>
       </c>
-      <c r="B306" s="2">
+      <c r="B306" s="1">
         <v>45419</v>
       </c>
       <c r="C306" t="s">
@@ -17758,7 +17833,7 @@
       <c r="P306" t="s">
         <v>72</v>
       </c>
-      <c r="Q306" s="2">
+      <c r="Q306" s="1">
         <v>45434</v>
       </c>
       <c r="R306">
@@ -17772,7 +17847,7 @@
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307" s="1">
         <v>45324</v>
       </c>
       <c r="C307" t="s">
@@ -17817,7 +17892,7 @@
       <c r="P307" t="s">
         <v>73</v>
       </c>
-      <c r="Q307" s="2">
+      <c r="Q307" s="1">
         <v>45341</v>
       </c>
       <c r="R307">
@@ -17831,7 +17906,7 @@
       <c r="A308">
         <v>307</v>
       </c>
-      <c r="B308" s="2">
+      <c r="B308" s="1">
         <v>45467</v>
       </c>
       <c r="C308" t="s">
@@ -17884,7 +17959,7 @@
       <c r="A309">
         <v>308</v>
       </c>
-      <c r="B309" s="2">
+      <c r="B309" s="1">
         <v>45313</v>
       </c>
       <c r="C309" t="s">
@@ -17929,7 +18004,7 @@
       <c r="P309" t="s">
         <v>73</v>
       </c>
-      <c r="Q309" s="2">
+      <c r="Q309" s="1">
         <v>45322</v>
       </c>
       <c r="R309">
@@ -17943,7 +18018,7 @@
       <c r="A310">
         <v>309</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310" s="1">
         <v>45529</v>
       </c>
       <c r="C310" t="s">
@@ -17988,7 +18063,7 @@
       <c r="P310" t="s">
         <v>73</v>
       </c>
-      <c r="Q310" s="2">
+      <c r="Q310" s="1">
         <v>45536</v>
       </c>
       <c r="R310">
@@ -18002,7 +18077,7 @@
       <c r="A311">
         <v>310</v>
       </c>
-      <c r="B311" s="2">
+      <c r="B311" s="1">
         <v>45449</v>
       </c>
       <c r="C311" t="s">
@@ -18047,7 +18122,7 @@
       <c r="P311" t="s">
         <v>73</v>
       </c>
-      <c r="Q311" s="2">
+      <c r="Q311" s="1">
         <v>45462</v>
       </c>
       <c r="R311">
@@ -18061,7 +18136,7 @@
       <c r="A312">
         <v>311</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B312" s="1">
         <v>45329</v>
       </c>
       <c r="C312" t="s">
@@ -18106,7 +18181,7 @@
       <c r="P312" t="s">
         <v>75</v>
       </c>
-      <c r="Q312" s="2">
+      <c r="Q312" s="1">
         <v>45353</v>
       </c>
       <c r="R312">
@@ -18120,7 +18195,7 @@
       <c r="A313">
         <v>312</v>
       </c>
-      <c r="B313" s="2">
+      <c r="B313" s="1">
         <v>45521</v>
       </c>
       <c r="C313" t="s">
@@ -18173,7 +18248,7 @@
       <c r="A314">
         <v>313</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314" s="1">
         <v>45656</v>
       </c>
       <c r="C314" t="s">
@@ -18226,7 +18301,7 @@
       <c r="A315">
         <v>314</v>
       </c>
-      <c r="B315" s="2">
+      <c r="B315" s="1">
         <v>45342</v>
       </c>
       <c r="C315" t="s">
@@ -18279,7 +18354,7 @@
       <c r="A316">
         <v>315</v>
       </c>
-      <c r="B316" s="2">
+      <c r="B316" s="1">
         <v>45555</v>
       </c>
       <c r="C316" t="s">
@@ -18324,7 +18399,7 @@
       <c r="P316" t="s">
         <v>73</v>
       </c>
-      <c r="Q316" s="2">
+      <c r="Q316" s="1">
         <v>45561</v>
       </c>
       <c r="R316">
@@ -18338,7 +18413,7 @@
       <c r="A317">
         <v>316</v>
       </c>
-      <c r="B317" s="2">
+      <c r="B317" s="1">
         <v>45574</v>
       </c>
       <c r="C317" t="s">
@@ -18383,7 +18458,7 @@
       <c r="P317" t="s">
         <v>75</v>
       </c>
-      <c r="Q317" s="2">
+      <c r="Q317" s="1">
         <v>45574</v>
       </c>
       <c r="R317">
@@ -18397,7 +18472,7 @@
       <c r="A318">
         <v>317</v>
       </c>
-      <c r="B318" s="2">
+      <c r="B318" s="1">
         <v>45318</v>
       </c>
       <c r="C318" t="s">
@@ -18442,7 +18517,7 @@
       <c r="P318" t="s">
         <v>72</v>
       </c>
-      <c r="Q318" s="2">
+      <c r="Q318" s="1">
         <v>45329</v>
       </c>
       <c r="R318">
@@ -18456,7 +18531,7 @@
       <c r="A319">
         <v>318</v>
       </c>
-      <c r="B319" s="2">
+      <c r="B319" s="1">
         <v>45517</v>
       </c>
       <c r="C319" t="s">
@@ -18509,7 +18584,7 @@
       <c r="A320">
         <v>319</v>
       </c>
-      <c r="B320" s="2">
+      <c r="B320" s="1">
         <v>45568</v>
       </c>
       <c r="C320" t="s">
@@ -18554,7 +18629,7 @@
       <c r="P320" t="s">
         <v>74</v>
       </c>
-      <c r="Q320" s="2">
+      <c r="Q320" s="1">
         <v>45590</v>
       </c>
       <c r="R320">
@@ -18568,7 +18643,7 @@
       <c r="A321">
         <v>320</v>
       </c>
-      <c r="B321" s="2">
+      <c r="B321" s="1">
         <v>45577</v>
       </c>
       <c r="C321" t="s">
@@ -18613,7 +18688,7 @@
       <c r="P321" t="s">
         <v>73</v>
       </c>
-      <c r="Q321" s="2">
+      <c r="Q321" s="1">
         <v>45579</v>
       </c>
       <c r="R321">
@@ -18627,7 +18702,7 @@
       <c r="A322">
         <v>321</v>
       </c>
-      <c r="B322" s="2">
+      <c r="B322" s="1">
         <v>45388</v>
       </c>
       <c r="C322" t="s">
@@ -18672,7 +18747,7 @@
       <c r="P322" t="s">
         <v>73</v>
       </c>
-      <c r="Q322" s="2">
+      <c r="Q322" s="1">
         <v>45394</v>
       </c>
       <c r="R322">
@@ -18686,7 +18761,7 @@
       <c r="A323">
         <v>322</v>
       </c>
-      <c r="B323" s="2">
+      <c r="B323" s="1">
         <v>45575</v>
       </c>
       <c r="C323" t="s">
@@ -18731,7 +18806,7 @@
       <c r="P323" t="s">
         <v>72</v>
       </c>
-      <c r="Q323" s="2">
+      <c r="Q323" s="1">
         <v>45591</v>
       </c>
       <c r="R323">
@@ -18745,7 +18820,7 @@
       <c r="A324">
         <v>323</v>
       </c>
-      <c r="B324" s="2">
+      <c r="B324" s="1">
         <v>45608</v>
       </c>
       <c r="C324" t="s">
@@ -18790,7 +18865,7 @@
       <c r="P324" t="s">
         <v>74</v>
       </c>
-      <c r="Q324" s="2">
+      <c r="Q324" s="1">
         <v>45640</v>
       </c>
       <c r="R324">
@@ -18804,7 +18879,7 @@
       <c r="A325">
         <v>324</v>
       </c>
-      <c r="B325" s="2">
+      <c r="B325" s="1">
         <v>45595</v>
       </c>
       <c r="C325" t="s">
@@ -18857,7 +18932,7 @@
       <c r="A326">
         <v>325</v>
       </c>
-      <c r="B326" s="2">
+      <c r="B326" s="1">
         <v>45438</v>
       </c>
       <c r="C326" t="s">
@@ -18910,7 +18985,7 @@
       <c r="A327">
         <v>326</v>
       </c>
-      <c r="B327" s="2">
+      <c r="B327" s="1">
         <v>45295</v>
       </c>
       <c r="C327" t="s">
@@ -18963,7 +19038,7 @@
       <c r="A328">
         <v>327</v>
       </c>
-      <c r="B328" s="2">
+      <c r="B328" s="1">
         <v>45326</v>
       </c>
       <c r="C328" t="s">
@@ -19016,7 +19091,7 @@
       <c r="A329">
         <v>328</v>
       </c>
-      <c r="B329" s="2">
+      <c r="B329" s="1">
         <v>45483</v>
       </c>
       <c r="C329" t="s">
@@ -19061,7 +19136,7 @@
       <c r="P329" t="s">
         <v>73</v>
       </c>
-      <c r="Q329" s="2">
+      <c r="Q329" s="1">
         <v>45488</v>
       </c>
       <c r="R329">
@@ -19075,7 +19150,7 @@
       <c r="A330">
         <v>329</v>
       </c>
-      <c r="B330" s="2">
+      <c r="B330" s="1">
         <v>45340</v>
       </c>
       <c r="C330" t="s">
@@ -19120,7 +19195,7 @@
       <c r="P330" t="s">
         <v>72</v>
       </c>
-      <c r="Q330" s="2">
+      <c r="Q330" s="1">
         <v>45345</v>
       </c>
       <c r="R330">
@@ -19134,7 +19209,7 @@
       <c r="A331">
         <v>330</v>
       </c>
-      <c r="B331" s="2">
+      <c r="B331" s="1">
         <v>45308</v>
       </c>
       <c r="C331" t="s">
@@ -19187,7 +19262,7 @@
       <c r="A332">
         <v>331</v>
       </c>
-      <c r="B332" s="2">
+      <c r="B332" s="1">
         <v>45463</v>
       </c>
       <c r="C332" t="s">
@@ -19240,7 +19315,7 @@
       <c r="A333">
         <v>332</v>
       </c>
-      <c r="B333" s="2">
+      <c r="B333" s="1">
         <v>45511</v>
       </c>
       <c r="C333" t="s">
@@ -19285,7 +19360,7 @@
       <c r="P333" t="s">
         <v>73</v>
       </c>
-      <c r="Q333" s="2">
+      <c r="Q333" s="1">
         <v>45528</v>
       </c>
       <c r="R333">
@@ -19299,7 +19374,7 @@
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="B334" s="2">
+      <c r="B334" s="1">
         <v>45449</v>
       </c>
       <c r="C334" t="s">
@@ -19352,7 +19427,7 @@
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="B335" s="2">
+      <c r="B335" s="1">
         <v>45337</v>
       </c>
       <c r="C335" t="s">
@@ -19405,7 +19480,7 @@
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="B336" s="2">
+      <c r="B336" s="1">
         <v>45297</v>
       </c>
       <c r="C336" t="s">
@@ -19458,7 +19533,7 @@
       <c r="A337">
         <v>336</v>
       </c>
-      <c r="B337" s="2">
+      <c r="B337" s="1">
         <v>45390</v>
       </c>
       <c r="C337" t="s">
@@ -19511,7 +19586,7 @@
       <c r="A338">
         <v>337</v>
       </c>
-      <c r="B338" s="2">
+      <c r="B338" s="1">
         <v>45524</v>
       </c>
       <c r="C338" t="s">
@@ -19564,7 +19639,7 @@
       <c r="A339">
         <v>338</v>
       </c>
-      <c r="B339" s="2">
+      <c r="B339" s="1">
         <v>45328</v>
       </c>
       <c r="C339" t="s">
@@ -19617,7 +19692,7 @@
       <c r="A340">
         <v>339</v>
       </c>
-      <c r="B340" s="2">
+      <c r="B340" s="1">
         <v>45571</v>
       </c>
       <c r="C340" t="s">
@@ -19670,7 +19745,7 @@
       <c r="A341">
         <v>340</v>
       </c>
-      <c r="B341" s="2">
+      <c r="B341" s="1">
         <v>45640</v>
       </c>
       <c r="C341" t="s">
@@ -19715,7 +19790,7 @@
       <c r="P341" t="s">
         <v>72</v>
       </c>
-      <c r="Q341" s="2">
+      <c r="Q341" s="1">
         <v>45663</v>
       </c>
       <c r="R341">
@@ -19729,7 +19804,7 @@
       <c r="A342">
         <v>341</v>
       </c>
-      <c r="B342" s="2">
+      <c r="B342" s="1">
         <v>45593</v>
       </c>
       <c r="C342" t="s">
@@ -19782,7 +19857,7 @@
       <c r="A343">
         <v>342</v>
       </c>
-      <c r="B343" s="2">
+      <c r="B343" s="1">
         <v>45472</v>
       </c>
       <c r="C343" t="s">
@@ -19827,7 +19902,7 @@
       <c r="P343" t="s">
         <v>75</v>
       </c>
-      <c r="Q343" s="2">
+      <c r="Q343" s="1">
         <v>45482</v>
       </c>
       <c r="R343">
@@ -19841,7 +19916,7 @@
       <c r="A344">
         <v>343</v>
       </c>
-      <c r="B344" s="2">
+      <c r="B344" s="1">
         <v>45386</v>
       </c>
       <c r="C344" t="s">
@@ -19894,7 +19969,7 @@
       <c r="A345">
         <v>344</v>
       </c>
-      <c r="B345" s="2">
+      <c r="B345" s="1">
         <v>45390</v>
       </c>
       <c r="C345" t="s">
@@ -19947,7 +20022,7 @@
       <c r="A346">
         <v>345</v>
       </c>
-      <c r="B346" s="2">
+      <c r="B346" s="1">
         <v>45479</v>
       </c>
       <c r="C346" t="s">
@@ -19992,7 +20067,7 @@
       <c r="P346" t="s">
         <v>74</v>
       </c>
-      <c r="Q346" s="2">
+      <c r="Q346" s="1">
         <v>45482</v>
       </c>
       <c r="R346">
@@ -20006,7 +20081,7 @@
       <c r="A347">
         <v>346</v>
       </c>
-      <c r="B347" s="2">
+      <c r="B347" s="1">
         <v>45407</v>
       </c>
       <c r="C347" t="s">
@@ -20059,7 +20134,7 @@
       <c r="A348">
         <v>347</v>
       </c>
-      <c r="B348" s="2">
+      <c r="B348" s="1">
         <v>45482</v>
       </c>
       <c r="C348" t="s">
@@ -20112,7 +20187,7 @@
       <c r="A349">
         <v>348</v>
       </c>
-      <c r="B349" s="2">
+      <c r="B349" s="1">
         <v>45544</v>
       </c>
       <c r="C349" t="s">
@@ -20157,7 +20232,7 @@
       <c r="P349" t="s">
         <v>72</v>
       </c>
-      <c r="Q349" s="2">
+      <c r="Q349" s="1">
         <v>45562</v>
       </c>
       <c r="R349">
@@ -20171,7 +20246,7 @@
       <c r="A350">
         <v>349</v>
       </c>
-      <c r="B350" s="2">
+      <c r="B350" s="1">
         <v>45452</v>
       </c>
       <c r="C350" t="s">
@@ -20216,7 +20291,7 @@
       <c r="P350" t="s">
         <v>72</v>
       </c>
-      <c r="Q350" s="2">
+      <c r="Q350" s="1">
         <v>45471</v>
       </c>
       <c r="R350">
@@ -20230,7 +20305,7 @@
       <c r="A351">
         <v>350</v>
       </c>
-      <c r="B351" s="2">
+      <c r="B351" s="1">
         <v>45547</v>
       </c>
       <c r="C351" t="s">
@@ -20283,7 +20358,7 @@
       <c r="A352">
         <v>351</v>
       </c>
-      <c r="B352" s="2">
+      <c r="B352" s="1">
         <v>45614</v>
       </c>
       <c r="C352" t="s">
@@ -20336,7 +20411,7 @@
       <c r="A353">
         <v>352</v>
       </c>
-      <c r="B353" s="2">
+      <c r="B353" s="1">
         <v>45419</v>
       </c>
       <c r="C353" t="s">
@@ -20381,7 +20456,7 @@
       <c r="P353" t="s">
         <v>73</v>
       </c>
-      <c r="Q353" s="2">
+      <c r="Q353" s="1">
         <v>45446</v>
       </c>
       <c r="R353">
@@ -20395,7 +20470,7 @@
       <c r="A354">
         <v>353</v>
       </c>
-      <c r="B354" s="2">
+      <c r="B354" s="1">
         <v>45309</v>
       </c>
       <c r="C354" t="s">
@@ -20448,7 +20523,7 @@
       <c r="A355">
         <v>354</v>
       </c>
-      <c r="B355" s="2">
+      <c r="B355" s="1">
         <v>45572</v>
       </c>
       <c r="C355" t="s">
@@ -20493,7 +20568,7 @@
       <c r="P355" t="s">
         <v>73</v>
       </c>
-      <c r="Q355" s="2">
+      <c r="Q355" s="1">
         <v>45591</v>
       </c>
       <c r="R355">
@@ -20507,7 +20582,7 @@
       <c r="A356">
         <v>355</v>
       </c>
-      <c r="B356" s="2">
+      <c r="B356" s="1">
         <v>45514</v>
       </c>
       <c r="C356" t="s">
@@ -20552,7 +20627,7 @@
       <c r="P356" t="s">
         <v>72</v>
       </c>
-      <c r="Q356" s="2">
+      <c r="Q356" s="1">
         <v>45534</v>
       </c>
       <c r="R356">
@@ -20566,7 +20641,7 @@
       <c r="A357">
         <v>356</v>
       </c>
-      <c r="B357" s="2">
+      <c r="B357" s="1">
         <v>45345</v>
       </c>
       <c r="C357" t="s">
@@ -20619,7 +20694,7 @@
       <c r="A358">
         <v>357</v>
       </c>
-      <c r="B358" s="2">
+      <c r="B358" s="1">
         <v>45349</v>
       </c>
       <c r="C358" t="s">
@@ -20672,7 +20747,7 @@
       <c r="A359">
         <v>358</v>
       </c>
-      <c r="B359" s="2">
+      <c r="B359" s="1">
         <v>45614</v>
       </c>
       <c r="C359" t="s">
@@ -20717,7 +20792,7 @@
       <c r="P359" t="s">
         <v>72</v>
       </c>
-      <c r="Q359" s="2">
+      <c r="Q359" s="1">
         <v>45627</v>
       </c>
       <c r="R359">
@@ -20731,7 +20806,7 @@
       <c r="A360">
         <v>359</v>
       </c>
-      <c r="B360" s="2">
+      <c r="B360" s="1">
         <v>45651</v>
       </c>
       <c r="C360" t="s">
@@ -20784,7 +20859,7 @@
       <c r="A361">
         <v>360</v>
       </c>
-      <c r="B361" s="2">
+      <c r="B361" s="1">
         <v>45465</v>
       </c>
       <c r="C361" t="s">
@@ -20837,7 +20912,7 @@
       <c r="A362">
         <v>361</v>
       </c>
-      <c r="B362" s="2">
+      <c r="B362" s="1">
         <v>45571</v>
       </c>
       <c r="C362" t="s">
@@ -20890,7 +20965,7 @@
       <c r="A363">
         <v>362</v>
       </c>
-      <c r="B363" s="2">
+      <c r="B363" s="1">
         <v>45405</v>
       </c>
       <c r="C363" t="s">
@@ -20935,7 +21010,7 @@
       <c r="P363" t="s">
         <v>73</v>
       </c>
-      <c r="Q363" s="2">
+      <c r="Q363" s="1">
         <v>45437</v>
       </c>
       <c r="R363">
@@ -20949,7 +21024,7 @@
       <c r="A364">
         <v>363</v>
       </c>
-      <c r="B364" s="2">
+      <c r="B364" s="1">
         <v>45579</v>
       </c>
       <c r="C364" t="s">
@@ -21002,7 +21077,7 @@
       <c r="A365">
         <v>364</v>
       </c>
-      <c r="B365" s="2">
+      <c r="B365" s="1">
         <v>45633</v>
       </c>
       <c r="C365" t="s">
@@ -21055,7 +21130,7 @@
       <c r="A366">
         <v>365</v>
       </c>
-      <c r="B366" s="2">
+      <c r="B366" s="1">
         <v>45442</v>
       </c>
       <c r="C366" t="s">
@@ -21108,7 +21183,7 @@
       <c r="A367">
         <v>366</v>
       </c>
-      <c r="B367" s="2">
+      <c r="B367" s="1">
         <v>45418</v>
       </c>
       <c r="C367" t="s">
@@ -21153,7 +21228,7 @@
       <c r="P367" t="s">
         <v>72</v>
       </c>
-      <c r="Q367" s="2">
+      <c r="Q367" s="1">
         <v>45430</v>
       </c>
       <c r="R367">
@@ -21167,7 +21242,7 @@
       <c r="A368">
         <v>367</v>
       </c>
-      <c r="B368" s="2">
+      <c r="B368" s="1">
         <v>45446</v>
       </c>
       <c r="C368" t="s">
@@ -21212,7 +21287,7 @@
       <c r="P368" t="s">
         <v>74</v>
       </c>
-      <c r="Q368" s="2">
+      <c r="Q368" s="1">
         <v>45456</v>
       </c>
       <c r="R368">
@@ -21226,7 +21301,7 @@
       <c r="A369">
         <v>368</v>
       </c>
-      <c r="B369" s="2">
+      <c r="B369" s="1">
         <v>45564</v>
       </c>
       <c r="C369" t="s">
@@ -21271,7 +21346,7 @@
       <c r="P369" t="s">
         <v>73</v>
       </c>
-      <c r="Q369" s="2">
+      <c r="Q369" s="1">
         <v>45591</v>
       </c>
       <c r="R369">
@@ -21285,7 +21360,7 @@
       <c r="A370">
         <v>369</v>
       </c>
-      <c r="B370" s="2">
+      <c r="B370" s="1">
         <v>45395</v>
       </c>
       <c r="C370" t="s">
@@ -21338,7 +21413,7 @@
       <c r="A371">
         <v>370</v>
       </c>
-      <c r="B371" s="2">
+      <c r="B371" s="1">
         <v>45590</v>
       </c>
       <c r="C371" t="s">
@@ -21391,7 +21466,7 @@
       <c r="A372">
         <v>371</v>
       </c>
-      <c r="B372" s="2">
+      <c r="B372" s="1">
         <v>45537</v>
       </c>
       <c r="C372" t="s">
@@ -21436,7 +21511,7 @@
       <c r="P372" t="s">
         <v>73</v>
       </c>
-      <c r="Q372" s="2">
+      <c r="Q372" s="1">
         <v>45541</v>
       </c>
       <c r="R372">
@@ -21450,7 +21525,7 @@
       <c r="A373">
         <v>372</v>
       </c>
-      <c r="B373" s="2">
+      <c r="B373" s="1">
         <v>45467</v>
       </c>
       <c r="C373" t="s">
@@ -21503,7 +21578,7 @@
       <c r="A374">
         <v>373</v>
       </c>
-      <c r="B374" s="2">
+      <c r="B374" s="1">
         <v>45330</v>
       </c>
       <c r="C374" t="s">
@@ -21556,7 +21631,7 @@
       <c r="A375">
         <v>374</v>
       </c>
-      <c r="B375" s="2">
+      <c r="B375" s="1">
         <v>45461</v>
       </c>
       <c r="C375" t="s">
@@ -21601,7 +21676,7 @@
       <c r="P375" t="s">
         <v>73</v>
       </c>
-      <c r="Q375" s="2">
+      <c r="Q375" s="1">
         <v>45463</v>
       </c>
       <c r="R375">
@@ -21615,7 +21690,7 @@
       <c r="A376">
         <v>375</v>
       </c>
-      <c r="B376" s="2">
+      <c r="B376" s="1">
         <v>45538</v>
       </c>
       <c r="C376" t="s">
@@ -21668,7 +21743,7 @@
       <c r="A377">
         <v>376</v>
       </c>
-      <c r="B377" s="2">
+      <c r="B377" s="1">
         <v>45317</v>
       </c>
       <c r="C377" t="s">
@@ -21713,7 +21788,7 @@
       <c r="P377" t="s">
         <v>75</v>
       </c>
-      <c r="Q377" s="2">
+      <c r="Q377" s="1">
         <v>45332</v>
       </c>
       <c r="R377">
@@ -21727,7 +21802,7 @@
       <c r="A378">
         <v>377</v>
       </c>
-      <c r="B378" s="2">
+      <c r="B378" s="1">
         <v>45646</v>
       </c>
       <c r="C378" t="s">
@@ -21772,7 +21847,7 @@
       <c r="P378" t="s">
         <v>72</v>
       </c>
-      <c r="Q378" s="2">
+      <c r="Q378" s="1">
         <v>45660</v>
       </c>
       <c r="R378">
@@ -21786,7 +21861,7 @@
       <c r="A379">
         <v>378</v>
       </c>
-      <c r="B379" s="2">
+      <c r="B379" s="1">
         <v>45597</v>
       </c>
       <c r="C379" t="s">
@@ -21839,7 +21914,7 @@
       <c r="A380">
         <v>379</v>
       </c>
-      <c r="B380" s="2">
+      <c r="B380" s="1">
         <v>45304</v>
       </c>
       <c r="C380" t="s">
@@ -21892,7 +21967,7 @@
       <c r="A381">
         <v>380</v>
       </c>
-      <c r="B381" s="2">
+      <c r="B381" s="1">
         <v>45607</v>
       </c>
       <c r="C381" t="s">
@@ -21937,7 +22012,7 @@
       <c r="P381" t="s">
         <v>72</v>
       </c>
-      <c r="Q381" s="2">
+      <c r="Q381" s="1">
         <v>45620</v>
       </c>
       <c r="R381">
@@ -21951,7 +22026,7 @@
       <c r="A382">
         <v>381</v>
       </c>
-      <c r="B382" s="2">
+      <c r="B382" s="1">
         <v>45604</v>
       </c>
       <c r="C382" t="s">
@@ -22004,7 +22079,7 @@
       <c r="A383">
         <v>382</v>
       </c>
-      <c r="B383" s="2">
+      <c r="B383" s="1">
         <v>45327</v>
       </c>
       <c r="C383" t="s">
@@ -22057,7 +22132,7 @@
       <c r="A384">
         <v>383</v>
       </c>
-      <c r="B384" s="2">
+      <c r="B384" s="1">
         <v>45464</v>
       </c>
       <c r="C384" t="s">
@@ -22102,7 +22177,7 @@
       <c r="P384" t="s">
         <v>75</v>
       </c>
-      <c r="Q384" s="2">
+      <c r="Q384" s="1">
         <v>45485</v>
       </c>
       <c r="R384">
@@ -22116,7 +22191,7 @@
       <c r="A385">
         <v>384</v>
       </c>
-      <c r="B385" s="2">
+      <c r="B385" s="1">
         <v>45311</v>
       </c>
       <c r="C385" t="s">
@@ -22161,7 +22236,7 @@
       <c r="P385" t="s">
         <v>73</v>
       </c>
-      <c r="Q385" s="2">
+      <c r="Q385" s="1">
         <v>45319</v>
       </c>
       <c r="R385">
@@ -22175,7 +22250,7 @@
       <c r="A386">
         <v>385</v>
       </c>
-      <c r="B386" s="2">
+      <c r="B386" s="1">
         <v>45612</v>
       </c>
       <c r="C386" t="s">
@@ -22220,7 +22295,7 @@
       <c r="P386" t="s">
         <v>74</v>
       </c>
-      <c r="Q386" s="2">
+      <c r="Q386" s="1">
         <v>45627</v>
       </c>
       <c r="R386">
@@ -22234,7 +22309,7 @@
       <c r="A387">
         <v>386</v>
       </c>
-      <c r="B387" s="2">
+      <c r="B387" s="1">
         <v>45555</v>
       </c>
       <c r="C387" t="s">
@@ -22279,7 +22354,7 @@
       <c r="P387" t="s">
         <v>73</v>
       </c>
-      <c r="Q387" s="2">
+      <c r="Q387" s="1">
         <v>45567</v>
       </c>
       <c r="R387">
@@ -22293,7 +22368,7 @@
       <c r="A388">
         <v>387</v>
       </c>
-      <c r="B388" s="2">
+      <c r="B388" s="1">
         <v>45433</v>
       </c>
       <c r="C388" t="s">
@@ -22346,7 +22421,7 @@
       <c r="A389">
         <v>388</v>
       </c>
-      <c r="B389" s="2">
+      <c r="B389" s="1">
         <v>45434</v>
       </c>
       <c r="C389" t="s">
@@ -22391,7 +22466,7 @@
       <c r="P389" t="s">
         <v>74</v>
       </c>
-      <c r="Q389" s="2">
+      <c r="Q389" s="1">
         <v>45442</v>
       </c>
       <c r="R389">
@@ -22405,7 +22480,7 @@
       <c r="A390">
         <v>389</v>
       </c>
-      <c r="B390" s="2">
+      <c r="B390" s="1">
         <v>45383</v>
       </c>
       <c r="C390" t="s">
@@ -22458,7 +22533,7 @@
       <c r="A391">
         <v>390</v>
       </c>
-      <c r="B391" s="2">
+      <c r="B391" s="1">
         <v>45645</v>
       </c>
       <c r="C391" t="s">
@@ -22503,7 +22578,7 @@
       <c r="P391" t="s">
         <v>72</v>
       </c>
-      <c r="Q391" s="2">
+      <c r="Q391" s="1">
         <v>45659</v>
       </c>
       <c r="R391">
@@ -22517,7 +22592,7 @@
       <c r="A392">
         <v>391</v>
       </c>
-      <c r="B392" s="2">
+      <c r="B392" s="1">
         <v>45613</v>
       </c>
       <c r="C392" t="s">
@@ -22570,7 +22645,7 @@
       <c r="A393">
         <v>392</v>
       </c>
-      <c r="B393" s="2">
+      <c r="B393" s="1">
         <v>45579</v>
       </c>
       <c r="C393" t="s">
@@ -22623,7 +22698,7 @@
       <c r="A394">
         <v>393</v>
       </c>
-      <c r="B394" s="2">
+      <c r="B394" s="1">
         <v>45506</v>
       </c>
       <c r="C394" t="s">
@@ -22676,7 +22751,7 @@
       <c r="A395">
         <v>394</v>
       </c>
-      <c r="B395" s="2">
+      <c r="B395" s="1">
         <v>45633</v>
       </c>
       <c r="C395" t="s">
@@ -22729,7 +22804,7 @@
       <c r="A396">
         <v>395</v>
       </c>
-      <c r="B396" s="2">
+      <c r="B396" s="1">
         <v>45342</v>
       </c>
       <c r="C396" t="s">
@@ -22782,7 +22857,7 @@
       <c r="A397">
         <v>396</v>
       </c>
-      <c r="B397" s="2">
+      <c r="B397" s="1">
         <v>45444</v>
       </c>
       <c r="C397" t="s">
@@ -22835,7 +22910,7 @@
       <c r="A398">
         <v>397</v>
       </c>
-      <c r="B398" s="2">
+      <c r="B398" s="1">
         <v>45477</v>
       </c>
       <c r="C398" t="s">
@@ -22880,7 +22955,7 @@
       <c r="P398" t="s">
         <v>72</v>
       </c>
-      <c r="Q398" s="2">
+      <c r="Q398" s="1">
         <v>45497</v>
       </c>
       <c r="R398">
@@ -22894,7 +22969,7 @@
       <c r="A399">
         <v>398</v>
       </c>
-      <c r="B399" s="2">
+      <c r="B399" s="1">
         <v>45354</v>
       </c>
       <c r="C399" t="s">
@@ -22939,7 +23014,7 @@
       <c r="P399" t="s">
         <v>75</v>
       </c>
-      <c r="Q399" s="2">
+      <c r="Q399" s="1">
         <v>45383</v>
       </c>
       <c r="R399">
@@ -22953,7 +23028,7 @@
       <c r="A400">
         <v>399</v>
       </c>
-      <c r="B400" s="2">
+      <c r="B400" s="1">
         <v>45481</v>
       </c>
       <c r="C400" t="s">
@@ -23006,7 +23081,7 @@
       <c r="A401">
         <v>400</v>
       </c>
-      <c r="B401" s="2">
+      <c r="B401" s="1">
         <v>45416</v>
       </c>
       <c r="C401" t="s">
@@ -23058,5 +23133,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>